--- a/biology/Botanique/Piment_oiseau/Piment_oiseau.xlsx
+++ b/biology/Botanique/Piment_oiseau/Piment_oiseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le piment oiseau ou piment z'oiseaux ou piment martin est un petit piment rouge ou vert, qui est une variété principalement issue des mascareignes Capsicum frutescens[1]. Il fait partie de la famille des Solanacées qui compte quelque 2 500 espèces. Dans l'échelle de Scoville simplifiée, qui mesure la force des piments, il est classé à un degré 8 (torride), légèrement plus fort que le piment de Cayenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le piment oiseau ou piment z'oiseaux ou piment martin est un petit piment rouge ou vert, qui est une variété principalement issue des mascareignes Capsicum frutescens. Il fait partie de la famille des Solanacées qui compte quelque 2 500 espèces. Dans l'échelle de Scoville simplifiée, qui mesure la force des piments, il est classé à un degré 8 (torride), légèrement plus fort que le piment de Cayenne.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois, avant que les traitements chimiques soient utilisés, ces piments se trouvaient en abondance dans les champs de canne. Les oiseaux (en étant friands) mangeaient les piments et en rejetaient les graines dans leurs fientes. C’est probablement de cette forme de dissémination que son nom proviendrait. Le nom « martin » serait issu de celui du martin triste (Acridotheres tristis), oiseau de la famille des Sturnidae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois, avant que les traitements chimiques soient utilisés, ces piments se trouvaient en abondance dans les champs de canne. Les oiseaux (en étant friands) mangeaient les piments et en rejetaient les graines dans leurs fientes. C’est probablement de cette forme de dissémination que son nom proviendrait. Le nom « martin » serait issu de celui du martin triste (Acridotheres tristis), oiseau de la famille des Sturnidae.
 Ce piment peut parfois être appelé piment langue d'oiseau, mais cette appellation est plus large et peut désigner d'autres cultivars, comme le pili-pili.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Île Maurice et la Réunion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur l'île Maurice et l’île de la Réunion le piment oiseau est utilisé dans de nombreuses préparations, dont :
 les huiles pimentées que l’on agrémente d’ail, de clous de girofle et de grains de poivre noir ;
@@ -578,7 +594,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de piment est conservée : 
 soit par la congélation,
